--- a/va_facility_data_2025-02-20/Thomas P. Noonan Jr. Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Thomas%20P.%20Noonan%20Jr.%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Thomas P. Noonan Jr. Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Thomas%20P.%20Noonan%20Jr.%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd3bc87fa106d4d57a24a7a9328260fd6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R71f0cf3f29694d27986fd1f764d2f5e0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R77669af64bd444eb9a0175345164ea0c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R593f372ef4e746ca863a6cd70a697cce"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb358f2c644f54fb7832b599eb090a085"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb3bcc2ee46634894bac55572fad7bf87"/>
   </x:sheets>
 </x:workbook>
 </file>
